--- a/Assets/MANAGER_TABLES/8046993693.0.xlsx
+++ b/Assets/MANAGER_TABLES/8046993693.0.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,22 +586,484 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>3239632203</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Dagny</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1386825528</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8795146687</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kecia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Callie</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1386825528</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7569690984</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Kalyn</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Leonardo</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1386825528</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>317440315</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Evelynn</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Anamaria</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1386825528</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3502441984</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Harvey</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ty</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6841158304</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nakesha</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chana</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3273508974</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Maegan</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3788855002</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Wendie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elias</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5002807220</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Keven</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Vivian</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3569528995</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Marquetta</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Darla</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3723735449</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dorothea</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Deloris</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3239632203</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tu</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Dagny</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1386825528</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8795146687</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Kecia</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Callie</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1386825528</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7569690984</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Kalyn</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Leonardo</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1386825528</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>317440315</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Evelynn</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Anamaria</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1386825528</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3502441984</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Harvey</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ty</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6841158304</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nakesha</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chana</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3273508974</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Maegan</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3788855002</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Wendie</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elias</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5002807220</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Keven</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Vivian</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3569528995</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Marquetta</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Darla</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3723735449</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Dorothea</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Deloris</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8046993693</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
         <v>9372070413</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Dillon</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Jayne</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D34" t="n">
+        <v>7285813456</v>
+      </c>
+      <c r="E34" t="n">
         <v>8046993693</v>
       </c>
     </row>

--- a/Assets/MANAGER_TABLES/8046993693.0.xlsx
+++ b/Assets/MANAGER_TABLES/8046993693.0.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,484 +586,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3239632203</v>
+        <v>9372070413</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tu</t>
+          <t>Dillon</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dagny</t>
+          <t>Jayne</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1386825528</v>
+        <v>7285813456</v>
       </c>
       <c r="E12" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>8795146687</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Kecia</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Callie</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1386825528</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>7569690984</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Kalyn</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Leonardo</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1386825528</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>317440315</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Evelynn</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Anamaria</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1386825528</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3502441984</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Harvey</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Ty</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>6841158304</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Nakesha</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Chana</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>3273508974</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Maegan</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>3788855002</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Wendie</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Elias</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5002807220</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Keven</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Vivian</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E20" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>3569528995</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Marquetta</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Darla</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E21" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>3723735449</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Dorothea</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Deloris</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E22" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>3239632203</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Tu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Dagny</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1386825528</v>
-      </c>
-      <c r="E23" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>8795146687</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Kecia</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Callie</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1386825528</v>
-      </c>
-      <c r="E24" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>7569690984</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Kalyn</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Leonardo</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1386825528</v>
-      </c>
-      <c r="E25" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>317440315</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Evelynn</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Anamaria</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1386825528</v>
-      </c>
-      <c r="E26" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>3502441984</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Harvey</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Ty</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E27" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>6841158304</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Nakesha</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Chana</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E28" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>3273508974</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Maegan</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E29" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>3788855002</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Wendie</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Elias</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>5002807220</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Keven</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Vivian</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E31" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>3569528995</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Marquetta</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Darla</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E32" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>3723735449</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Dorothea</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Deloris</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E33" t="n">
-        <v>8046993693</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>9372070413</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Dillon</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Jayne</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>7285813456</v>
-      </c>
-      <c r="E34" t="n">
         <v>8046993693</v>
       </c>
     </row>
